--- a/Tables/Specifications 2.xlsx
+++ b/Tables/Specifications 2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fredrikfeyling/Documents/Skole/V20/Radio/Project Report/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4807E2E2-663A-D44D-A0F1-F183FBB20C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299107D8-4F68-8648-8C8F-1535E928EC68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{36E50130-CFC4-5141-9FA9-1E6221641BA0}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{36E50130-CFC4-5141-9FA9-1E6221641BA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel2LaTeX" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="specs" sheetId="1" r:id="rId2"/>
+    <sheet name="Ark1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>System Variables</t>
   </si>
@@ -145,6 +146,84 @@
   </si>
   <si>
     <t>Low / High Data rate</t>
+  </si>
+  <si>
+    <t>Sound data rate</t>
+  </si>
+  <si>
+    <t>QPSK</t>
+  </si>
+  <si>
+    <t>QAM</t>
+  </si>
+  <si>
+    <t>bit per sample</t>
+  </si>
+  <si>
+    <t>Samplerate</t>
+  </si>
+  <si>
+    <t>Packet rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symbol rate </t>
+  </si>
+  <si>
+    <t>Burst length symb</t>
+  </si>
+  <si>
+    <t>Må måles</t>
+  </si>
+  <si>
+    <t>Transmit Power</t>
+  </si>
+  <si>
+    <t>Båndbredde</t>
+  </si>
+  <si>
+    <t>Mottatt SNR</t>
+  </si>
+  <si>
+    <t>Diskutere</t>
+  </si>
+  <si>
+    <t>Link budget. BER? System Noise?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eksamen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specs. Jukse med Rs? </t>
+  </si>
+  <si>
+    <t>Rs</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>Packet data size bits</t>
+  </si>
+  <si>
+    <t>Packet Bit Rate</t>
+  </si>
+  <si>
+    <t>FEC Bit Rate</t>
+  </si>
+  <si>
+    <t>Symbol Map Rate</t>
+  </si>
+  <si>
+    <t>Barker Rate</t>
+  </si>
+  <si>
+    <t>Barker Packet L</t>
+  </si>
+  <si>
+    <t>Sample Rate</t>
   </si>
 </sst>
 </file>
@@ -154,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,6 +316,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -264,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,6 +411,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,17 +776,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64562D7C-5AB1-3249-8BE2-00D156FBFD21}">
   <sheetPr codeName="Ark2"/>
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="22" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
+    <col min="3" max="5" width="10.83203125" style="3"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="9" width="10.83203125" style="3"/>
+    <col min="10" max="10" width="24.33203125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -731,8 +823,6 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -744,8 +834,6 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -757,8 +845,6 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -770,8 +856,6 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -783,8 +867,6 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -794,8 +876,6 @@
         <v>30</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -805,8 +885,6 @@
         <v>31</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
@@ -816,8 +894,6 @@
         <v>14</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
@@ -827,8 +903,6 @@
         <v>32</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
@@ -847,8 +921,6 @@
       <c r="C13" s="4"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
@@ -886,7 +958,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
@@ -894,12 +966,16 @@
         <v>0.3</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="4">
+        <v>137.5</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>25</v>
       </c>
@@ -907,21 +983,32 @@
         <v>35</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.3</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="22"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="4">
+        <f>E17/2*(1+E18)</f>
+        <v>89.375</v>
+      </c>
+      <c r="F19" s="4">
+        <v>89.375</v>
+      </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="22"/>
       <c r="C20" s="4"/>
@@ -930,7 +1017,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="21"/>
       <c r="C21" s="4"/>
@@ -938,8 +1025,15 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J21" s="4"/>
+      <c r="K21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="23"/>
       <c r="C22" s="4"/>
@@ -947,8 +1041,17 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="4">
+        <v>12</v>
+      </c>
+      <c r="L22" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="21"/>
       <c r="C23" s="4"/>
@@ -956,8 +1059,17 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="J23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="4">
+        <v>11025</v>
+      </c>
+      <c r="L23" s="3">
+        <v>22050</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="24"/>
       <c r="C24" s="4"/>
@@ -965,8 +1077,19 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="4">
+        <f>K22*K23</f>
+        <v>132300</v>
+      </c>
+      <c r="L24" s="4">
+        <f>L22*L23</f>
+        <v>264600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="21"/>
       <c r="C25" s="4"/>
@@ -974,8 +1097,10 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="25"/>
       <c r="C26" s="4"/>
@@ -983,8 +1108,17 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="3">
+        <v>512</v>
+      </c>
+      <c r="L26" s="3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="21"/>
       <c r="C27" s="4"/>
@@ -992,17 +1126,39 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="4">
+        <f>K24/K26</f>
+        <v>258.3984375</v>
+      </c>
+      <c r="L27" s="4">
+        <f>L24/L26</f>
+        <v>516.796875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="26"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="4">
+        <f>(K26+8)*K27/1000</f>
+        <v>134.3671875</v>
+      </c>
+      <c r="L28" s="4">
+        <f>(L26+8)*L27/1000</f>
+        <v>268.734375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="21"/>
       <c r="C29" s="4"/>
@@ -1010,8 +1166,19 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="4">
+        <f>(K26+8)*7/4*K27/1000</f>
+        <v>235.142578125</v>
+      </c>
+      <c r="L29" s="4">
+        <f>(L26+8)*7/4*L27/1000</f>
+        <v>470.28515625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="21"/>
       <c r="C30" s="4"/>
@@ -1019,8 +1186,19 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" s="4">
+        <f>K29/2</f>
+        <v>117.5712890625</v>
+      </c>
+      <c r="L30" s="4">
+        <f>L29/4</f>
+        <v>117.5712890625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="21"/>
       <c r="C31" s="4"/>
@@ -1028,26 +1206,49 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="26"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K32" s="4">
+        <v>482</v>
+      </c>
+      <c r="L32" s="3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="21"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="8"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="4">
+        <f>K32*K27/1000</f>
+        <v>124.548046875</v>
+      </c>
+      <c r="L33" s="4">
+        <f>L32*L27/1000</f>
+        <v>130.23281249999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="21"/>
       <c r="C34" s="4"/>
@@ -1055,9 +1256,18 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
+      <c r="J34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="4">
+        <v>484</v>
+      </c>
+      <c r="L34" s="3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
       <c r="B35" s="21"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1065,7 +1275,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="21"/>
       <c r="C36" s="4"/>
@@ -1073,26 +1283,48 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="25"/>
+      <c r="J36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K36" s="4">
+        <f>K34*K27/1000</f>
+        <v>125.06484374999999</v>
+      </c>
+      <c r="L36" s="3">
+        <f>L34*L27/1000</f>
+        <v>132.30000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K37" s="3">
+        <f>K36*8</f>
+        <v>1000.51875</v>
+      </c>
+      <c r="L37" s="3">
+        <f>L36*8</f>
+        <v>1058.4000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="21"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="21"/>
       <c r="C39" s="4"/>
@@ -1101,16 +1333,16 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
-      <c r="B40" s="27"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="21"/>
       <c r="C41" s="4"/>
@@ -1119,25 +1351,25 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="21"/>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="26"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="21"/>
       <c r="C44" s="4"/>
@@ -1146,16 +1378,16 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
-      <c r="B45" s="21"/>
+      <c r="B45" s="27"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="21"/>
       <c r="C46" s="4"/>
@@ -1164,18 +1396,18 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="25"/>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
-      <c r="B48" s="21"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -1192,7 +1424,7 @@
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="21"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1210,8 +1442,8 @@
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="21"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -1219,7 +1451,7 @@
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
+      <c r="A53" s="4"/>
       <c r="B53" s="21"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1237,7 +1469,7 @@
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
+      <c r="A55" s="4"/>
       <c r="B55" s="21"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1255,8 +1487,8 @@
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
-      <c r="B57" s="25"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -1264,7 +1496,7 @@
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="21"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -1282,7 +1514,7 @@
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
+      <c r="A60" s="9"/>
       <c r="B60" s="21"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -1300,8 +1532,8 @@
       <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
-      <c r="B62" s="21"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -1309,7 +1541,7 @@
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
+      <c r="A63" s="4"/>
       <c r="B63" s="21"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -1318,7 +1550,7 @@
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
+      <c r="A64" s="4"/>
       <c r="B64" s="21"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1327,7 +1559,7 @@
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
+      <c r="A65" s="4"/>
       <c r="B65" s="21"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1336,7 +1568,7 @@
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
+      <c r="A66" s="4"/>
       <c r="B66" s="21"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -1345,7 +1577,7 @@
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
+      <c r="A67" s="4"/>
       <c r="B67" s="21"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1372,7 +1604,7 @@
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="4"/>
+      <c r="A70" s="9"/>
       <c r="B70" s="21"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -1381,7 +1613,7 @@
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="4"/>
+      <c r="A71" s="9"/>
       <c r="B71" s="21"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -1390,7 +1622,7 @@
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="4"/>
+      <c r="A72" s="9"/>
       <c r="B72" s="21"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -1398,6 +1630,115 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="9"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="9"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="4"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="4"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="4"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C5587D5-E0C6-B145-8AF6-2B95D395C217}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
